--- a/src/assets/drawback-template.xlsx
+++ b/src/assets/drawback-template.xlsx
@@ -11,7 +11,7 @@
     <sheet name="page" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">page!$A$1:$P$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">page!$A$1:$P$58</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t xml:space="preserve">Акт № </t>
   </si>
@@ -203,15 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">Получатель:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Заправщик-учетчик участка  ГСМ ООО "Разрез Восточный"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Морозова И.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Приказ № 185 от 21.08.2019г. "О праве подписи учетных документов"</t>
   </si>
   <si>
     <t xml:space="preserve">Оператор ООО "Регион Трейд"</t>
@@ -638,7 +629,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -980,10 +971,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="173" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1167,10 +1154,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1992,24 +1979,24 @@
         <f aca="false">SUM(B39:B43)</f>
         <v>0</v>
       </c>
-      <c r="C44" s="85" t="n">
-        <f aca="false">SUM(C39:C43)/5</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="86" t="n">
-        <f aca="false">SUM(D39:D43)/5</f>
-        <v>0</v>
+      <c r="C44" s="85" t="e">
+        <f aca="false">AVERAGE(C$39:C$43)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D44" s="85" t="e">
+        <f aca="false">AVERAGE(D$39:D$43)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E44" s="83"/>
-      <c r="F44" s="87" t="n">
+      <c r="F44" s="86" t="n">
         <f aca="false">SUM(F39:F43)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="88" t="e">
+      <c r="G44" s="87" t="e">
         <f aca="false">F44/C44</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="87" t="e">
+      <c r="H44" s="86" t="e">
         <f aca="false">SUM(H39:H43)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2017,57 +2004,57 @@
         <f aca="false">SUM(I39:I43)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="89" t="n">
+      <c r="J44" s="88" t="n">
         <f aca="false">B44-I44</f>
         <v>0</v>
       </c>
-      <c r="K44" s="90" t="n">
+      <c r="K44" s="89" t="n">
         <f aca="false">B34*K37/100</f>
         <v>0</v>
       </c>
-      <c r="L44" s="91" t="n">
+      <c r="L44" s="90" t="n">
         <f aca="false">B34*L37/100</f>
         <v>0</v>
       </c>
-      <c r="M44" s="92" t="n">
+      <c r="M44" s="91" t="n">
         <f aca="false">B34*M37/100</f>
         <v>0</v>
       </c>
-      <c r="N44" s="93" t="e">
+      <c r="N44" s="92" t="e">
         <f aca="false">H44-I44</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O44" s="94" t="e">
+      <c r="O44" s="93" t="e">
         <f aca="false">SUM(O39:O43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P44" s="95" t="e">
+      <c r="P44" s="94" t="e">
         <f aca="false">ABS($M$44)-ABS($O$44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q44" s="96" t="e">
+      <c r="Q44" s="95" t="e">
         <f aca="false">IF(AND(O44&lt;0,P44&lt;0),"ТРЕБУЕТСЯ АКТ НЕДОСТАЧИ","")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="97"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="101"/>
-      <c r="O45" s="102"/>
+      <c r="A45" s="96"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="100"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="100"/>
+      <c r="M45" s="100"/>
+      <c r="O45" s="101"/>
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="103" t="s">
+      <c r="A46" s="102" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="6"/>
@@ -2077,110 +2064,110 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="103" t="s">
+      <c r="A47" s="102" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="104" t="e">
+      <c r="G47" s="103" t="e">
         <f aca="false">H44</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="103" t="s">
+      <c r="A48" s="102" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="104" t="n">
+      <c r="G48" s="103" t="n">
         <f aca="false">I44</f>
         <v>0</v>
       </c>
       <c r="H48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="103" t="s">
+      <c r="A49" s="102" t="s">
         <v>56</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="104" t="e">
+      <c r="G49" s="103" t="e">
         <f aca="false">O44</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="103" t="s">
+      <c r="A50" s="102" t="s">
         <v>40</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="104" t="n">
+      <c r="G50" s="103" t="n">
         <f aca="false">J44</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="103" t="s">
+      <c r="A51" s="102" t="s">
         <v>57</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="104" t="e">
+      <c r="G51" s="103" t="e">
         <f aca="false">IF($B$34+$O$44&gt;B34,B34,$B$34+$O$44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="105"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="104"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="103"/>
     </row>
     <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="103"/>
-      <c r="B52" s="104"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="103"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="104"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="103"/>
     </row>
     <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="103"/>
+      <c r="A53" s="102"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="104"/>
+      <c r="G53" s="103"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="106" t="s">
+      <c r="A54" s="105" t="s">
         <v>58</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="104"/>
+      <c r="G54" s="103"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
         <v>59</v>
       </c>
@@ -2192,7 +2179,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>60</v>
       </c>
@@ -2200,59 +2187,36 @@
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="18.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H56" s="6"/>
+      <c r="O56" s="6"/>
+    </row>
+    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-      <c r="O57" s="6"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
-      <c r="O58" s="6"/>
-    </row>
-    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-    </row>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="A2:F2"/>

--- a/src/assets/drawback-template.xlsx
+++ b/src/assets/drawback-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artursirbiladze/PhpstormProjects/rosnova-warehouse/src/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikhailzatolokin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD840B30-A362-8242-84FF-5566C9C15B84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F81A0F5-5353-8C46-82EA-A9BD2488213D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24840" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29700" windowHeight="18600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="page" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -232,7 +236,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -300,6 +304,26 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -315,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -694,7 +718,9 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -704,10 +730,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -719,21 +745,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -796,6 +807,30 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -805,278 +840,255 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1486,8 +1498,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1511,1039 +1523,1034 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="14"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17" t="s">
+      <c r="B16" s="5"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="17" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="I24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="25"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16">
         <v>20520986</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="16">
         <v>20520987</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="16">
         <v>20520988</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="16">
         <v>20520989</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-    </row>
-    <row r="26" spans="1:11" s="31" customFormat="1" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="32" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="17" t="s">
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="34"/>
+      <c r="B28" s="6"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="34"/>
+      <c r="B29" s="6"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="D32" s="13"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+      <c r="B32" s="6"/>
+      <c r="D32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
+      <c r="B33" s="95"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
     </row>
     <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
     </row>
     <row r="37" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="47">
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="32">
         <v>0.65</v>
       </c>
-      <c r="L37" s="48">
+      <c r="L37" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="M37" s="49">
+      <c r="M37" s="34">
         <f>K37+L37</f>
         <v>0.65039999999999998</v>
       </c>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
     </row>
     <row r="38" spans="1:17" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51" t="s">
+      <c r="A38" s="74"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="52" t="s">
+      <c r="F38" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="53" t="s">
+      <c r="G38" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="52" t="s">
+      <c r="H38" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="I38" s="51" t="s">
+      <c r="I38" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="J38" s="52" t="s">
+      <c r="J38" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="54" t="s">
+      <c r="K38" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="L38" s="55" t="s">
+      <c r="L38" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="M38" s="56" t="s">
+      <c r="M38" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="N38" s="53" t="s">
+      <c r="N38" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="O38" s="50" t="s">
+      <c r="O38" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="P38" s="52" t="s">
+      <c r="P38" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="61">
+      <c r="B39" s="81"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="77">
         <f>B39*B35</f>
         <v>0</v>
       </c>
-      <c r="G39" s="62" t="e">
+      <c r="G39" s="77" t="e">
         <f t="shared" ref="G39:G44" si="0">F39/C39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="61" t="e">
-        <f>B39-G39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="63">
+      <c r="H39" s="77" t="e">
+        <f>IF(B39-G39&lt;0,0,B39-G39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="73">
         <v>0</v>
       </c>
-      <c r="J39" s="64">
+      <c r="J39" s="71">
         <f t="shared" ref="J39:J44" si="1">B39-I39</f>
         <v>0</v>
       </c>
-      <c r="K39" s="65"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="68" t="e">
+      <c r="K39" s="41"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="44" t="e">
         <f t="shared" ref="N39:N44" si="2">H39-I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O39" s="69" t="e">
+      <c r="O39" s="45" t="e">
         <f>N39*C39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P39" s="70"/>
+      <c r="P39" s="46"/>
     </row>
     <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="71" t="s">
+      <c r="A40" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="72"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="74">
+      <c r="B40" s="81"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="77">
         <f>B40*B35</f>
         <v>0</v>
       </c>
-      <c r="G40" s="62" t="e">
+      <c r="G40" s="77" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="74" t="e">
-        <f>B40-G40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="63">
+      <c r="H40" s="77" t="e">
+        <f t="shared" ref="H40:H43" si="3">IF(B40-G40&lt;0,0,B40-G40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="73">
         <v>0</v>
       </c>
-      <c r="J40" s="64">
+      <c r="J40" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K40" s="75"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="74" t="e">
+      <c r="K40" s="48"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="47" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O40" s="69" t="e">
+      <c r="O40" s="45" t="e">
         <f>N40*C40</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P40" s="78"/>
+      <c r="P40" s="51"/>
     </row>
     <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="74">
+      <c r="B41" s="81"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="77">
         <f>B41*B35</f>
         <v>0</v>
       </c>
-      <c r="G41" s="62" t="e">
+      <c r="G41" s="77" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="74" t="e">
-        <f>B41-G41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="63">
+      <c r="H41" s="77" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="73">
         <v>0</v>
       </c>
-      <c r="J41" s="64">
+      <c r="J41" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K41" s="75"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="74" t="e">
+      <c r="K41" s="48"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="47" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O41" s="69" t="e">
+      <c r="O41" s="45" t="e">
         <f>N41*C41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P41" s="78"/>
+      <c r="P41" s="51"/>
     </row>
     <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="71" t="s">
+      <c r="A42" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="74">
+      <c r="B42" s="81"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="77">
         <f>B42*B35</f>
         <v>0</v>
       </c>
-      <c r="G42" s="62" t="e">
+      <c r="G42" s="77" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="74" t="e">
-        <f>B42-G42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="63">
+      <c r="H42" s="77" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="73">
         <v>0</v>
       </c>
-      <c r="J42" s="64">
+      <c r="J42" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K42" s="79"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="81"/>
-      <c r="N42" s="74" t="e">
+      <c r="K42" s="52"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="47" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O42" s="69" t="e">
+      <c r="O42" s="45" t="e">
         <f>N42*C42</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P42" s="82"/>
+      <c r="P42" s="55"/>
     </row>
     <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="74">
+      <c r="B43" s="81"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="77">
         <f>B43*B35</f>
         <v>0</v>
       </c>
-      <c r="G43" s="62" t="e">
+      <c r="G43" s="77" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="74" t="e">
-        <f>B43-G43</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="63">
+      <c r="H43" s="77" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" s="73">
         <v>0</v>
       </c>
-      <c r="J43" s="64">
+      <c r="J43" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K43" s="79"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="74" t="e">
+      <c r="K43" s="52"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="47" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O43" s="69" t="e">
+      <c r="O43" s="45" t="e">
         <f>N43*C43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P43" s="82"/>
+      <c r="P43" s="55"/>
     </row>
     <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="85">
+      <c r="B44" s="81">
         <f>SUM(B39:B43)</f>
         <v>0</v>
       </c>
-      <c r="C44" s="86" t="e">
+      <c r="C44" s="79" t="e">
         <f>AVERAGE(C$39:C$43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D44" s="86" t="e">
+      <c r="D44" s="79" t="e">
         <f>AVERAGE(D$39:D$43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="84"/>
-      <c r="F44" s="87">
+      <c r="E44" s="80"/>
+      <c r="F44" s="81">
         <f>SUM(F39:F43)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="88" t="e">
+      <c r="G44" s="82" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="87" t="e">
+      <c r="H44" s="81" t="e">
         <f>SUM(H39:H43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="63">
+      <c r="I44" s="73">
         <f>SUM(I39:I43)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="89">
+      <c r="J44" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K44" s="90">
+      <c r="K44" s="56">
         <f>B34*K37/100</f>
         <v>0</v>
       </c>
-      <c r="L44" s="91">
+      <c r="L44" s="57">
         <f>B34*L37/100</f>
         <v>0</v>
       </c>
-      <c r="M44" s="92">
+      <c r="M44" s="58">
         <f>B34*M37/100</f>
         <v>0</v>
       </c>
-      <c r="N44" s="93" t="e">
+      <c r="N44" s="59" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O44" s="94" t="e">
+      <c r="O44" s="60" t="e">
         <f>SUM(O39:O43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P44" s="95" t="e">
+      <c r="P44" s="61" t="e">
         <f>ABS($M$44)-ABS($O$44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q44" s="96" t="e">
+      <c r="Q44" s="62" t="e">
         <f>IF(AND(O44&lt;0,P44&lt;0),"ТРЕБУЕТСЯ АКТ НЕДОСТАЧИ","")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A45" s="97"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="101"/>
-      <c r="O45" s="102"/>
+      <c r="B45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="O45" s="66"/>
     </row>
     <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="103" t="s">
+      <c r="A46" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
     </row>
     <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="103" t="s">
+      <c r="A47" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="104" t="e">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="67" t="e">
         <f>H44</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="15"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="103" t="s">
+      <c r="A48" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="104">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="67">
         <f>I44</f>
         <v>0</v>
       </c>
-      <c r="H48" s="15"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="103" t="s">
+      <c r="A49" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="104" t="e">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="67" t="e">
         <f>O44</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="103" t="s">
+      <c r="A50" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="104">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="67">
         <f>J44</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A51" s="103" t="s">
+      <c r="A51" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="104" t="e">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="67" t="e">
         <f>IF($B$34+$O$44&gt;B34,B34,$B$34+$O$44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="105"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="104"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
     </row>
     <row r="52" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A52" s="103"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="104"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
     </row>
     <row r="53" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="103"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="15"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="106" t="s">
+      <c r="A54" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="15"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="O56" s="15"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="O56" s="6"/>
     </row>
     <row r="57" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/src/assets/drawback-template.xlsx
+++ b/src/assets/drawback-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikhailzatolokin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artursirbiladze/PhpstormProjects/rosnova-warehouse/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F81A0F5-5353-8C46-82EA-A9BD2488213D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105E3D8C-9D1E-054D-A15A-E4806EE8A30C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29700" windowHeight="18600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="page" sheetId="1" r:id="rId1"/>
@@ -840,7 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -907,9 +907,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1032,9 +1029,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1042,9 +1036,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1059,35 +1050,41 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1499,7 +1496,7 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1536,25 +1533,25 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -1576,13 +1573,13 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1590,14 +1587,14 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
@@ -1652,15 +1649,15 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1672,16 +1669,16 @@
       <c r="B12" s="5"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
       <c r="H12" s="7"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1692,8 +1689,8 @@
     </row>
     <row r="14" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="7"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1796,10 +1793,10 @@
         <v>14</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="89" t="s">
+      <c r="G21" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="89"/>
+      <c r="H21" s="87"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
@@ -1814,10 +1811,10 @@
         <v>14</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="89" t="s">
+      <c r="G22" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="89"/>
+      <c r="H22" s="87"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
@@ -1896,8 +1893,8 @@
       <c r="D26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
       <c r="G26" s="2" t="s">
         <v>23</v>
       </c>
@@ -1922,8 +1919,8 @@
         <v>24</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -1931,16 +1928,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -1953,8 +1950,8 @@
       <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1976,10 +1973,10 @@
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="95" t="s">
+      <c r="A33" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="95"/>
+      <c r="B33" s="85"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -2029,7 +2026,7 @@
       <c r="A36" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -2043,352 +2040,352 @@
       <c r="M36" s="22"/>
     </row>
     <row r="37" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="32">
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="31">
         <v>0.65</v>
       </c>
-      <c r="L37" s="33">
+      <c r="L37" s="32">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="M37" s="34">
+      <c r="M37" s="33">
         <f>K37+L37</f>
         <v>0.65039999999999998</v>
       </c>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
     </row>
     <row r="38" spans="1:17" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="74"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="84" t="s">
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="84" t="s">
+      <c r="D38" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="85" t="s">
+      <c r="E38" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="85" t="s">
+      <c r="F38" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="85" t="s">
+      <c r="G38" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="85" t="s">
+      <c r="H38" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I38" s="84" t="s">
+      <c r="I38" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="J38" s="70" t="s">
+      <c r="J38" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="38" t="s">
+      <c r="K38" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="L38" s="39" t="s">
+      <c r="L38" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M38" s="40" t="s">
+      <c r="M38" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="N38" s="37" t="s">
+      <c r="N38" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="O38" s="35" t="s">
+      <c r="O38" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="P38" s="36" t="s">
+      <c r="P38" s="35" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="83" t="s">
+      <c r="A39" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="77">
+      <c r="B39" s="78"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="75">
         <f>B39*B35</f>
         <v>0</v>
       </c>
-      <c r="G39" s="77" t="e">
+      <c r="G39" s="75" t="e">
         <f t="shared" ref="G39:G44" si="0">F39/C39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="77" t="e">
+      <c r="H39" s="75" t="e">
         <f>IF(B39-G39&lt;0,0,B39-G39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="73">
+      <c r="I39" s="72">
         <v>0</v>
       </c>
-      <c r="J39" s="71">
+      <c r="J39" s="70">
         <f t="shared" ref="J39:J44" si="1">B39-I39</f>
         <v>0</v>
       </c>
-      <c r="K39" s="41"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="44" t="e">
+      <c r="K39" s="40"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="43" t="e">
         <f t="shared" ref="N39:N44" si="2">H39-I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O39" s="45" t="e">
+      <c r="O39" s="44" t="e">
         <f>N39*C39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P39" s="46"/>
+      <c r="P39" s="45"/>
     </row>
     <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="81"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="77">
+      <c r="B40" s="78"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="75">
         <f>B40*B35</f>
         <v>0</v>
       </c>
-      <c r="G40" s="77" t="e">
+      <c r="G40" s="75" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="77" t="e">
+      <c r="H40" s="75" t="e">
         <f t="shared" ref="H40:H43" si="3">IF(B40-G40&lt;0,0,B40-G40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="73">
+      <c r="I40" s="72">
         <v>0</v>
       </c>
-      <c r="J40" s="71">
+      <c r="J40" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K40" s="48"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="47" t="e">
+      <c r="K40" s="47"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="46" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O40" s="45" t="e">
+      <c r="O40" s="44" t="e">
         <f>N40*C40</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P40" s="51"/>
+      <c r="P40" s="50"/>
     </row>
     <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="83" t="s">
+      <c r="A41" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="77">
+      <c r="B41" s="78"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="75">
         <f>B41*B35</f>
         <v>0</v>
       </c>
-      <c r="G41" s="77" t="e">
+      <c r="G41" s="75" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="77" t="e">
+      <c r="H41" s="75" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="73">
+      <c r="I41" s="72">
         <v>0</v>
       </c>
-      <c r="J41" s="71">
+      <c r="J41" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K41" s="48"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="47" t="e">
+      <c r="K41" s="47"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="46" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O41" s="45" t="e">
+      <c r="O41" s="44" t="e">
         <f>N41*C41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P41" s="51"/>
+      <c r="P41" s="50"/>
     </row>
     <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="83" t="s">
+      <c r="A42" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="77">
+      <c r="B42" s="78"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="75">
         <f>B42*B35</f>
         <v>0</v>
       </c>
-      <c r="G42" s="77" t="e">
+      <c r="G42" s="75" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="77" t="e">
+      <c r="H42" s="75" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" s="73">
+      <c r="I42" s="72">
         <v>0</v>
       </c>
-      <c r="J42" s="71">
+      <c r="J42" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K42" s="52"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="47" t="e">
+      <c r="K42" s="51"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="46" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O42" s="45" t="e">
+      <c r="O42" s="44" t="e">
         <f>N42*C42</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P42" s="55"/>
+      <c r="P42" s="54"/>
     </row>
     <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="77">
+      <c r="B43" s="78"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="75">
         <f>B43*B35</f>
         <v>0</v>
       </c>
-      <c r="G43" s="77" t="e">
+      <c r="G43" s="75" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="77" t="e">
+      <c r="H43" s="75" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="73">
+      <c r="I43" s="72">
         <v>0</v>
       </c>
-      <c r="J43" s="71">
+      <c r="J43" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K43" s="52"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="47" t="e">
+      <c r="K43" s="51"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="46" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O43" s="45" t="e">
+      <c r="O43" s="44" t="e">
         <f>N43*C43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P43" s="55"/>
+      <c r="P43" s="54"/>
     </row>
     <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="80" t="s">
+      <c r="A44" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="81">
+      <c r="B44" s="78">
         <f>SUM(B39:B43)</f>
         <v>0</v>
       </c>
-      <c r="C44" s="79" t="e">
+      <c r="C44" s="76" t="e">
         <f>AVERAGE(C$39:C$43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D44" s="79" t="e">
+      <c r="D44" s="93" t="e">
         <f>AVERAGE(D$39:D$43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="80"/>
-      <c r="F44" s="81">
+      <c r="E44" s="77"/>
+      <c r="F44" s="78">
         <f>SUM(F39:F43)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="82" t="e">
+      <c r="G44" s="79" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="81" t="e">
+      <c r="H44" s="78" t="e">
         <f>SUM(H39:H43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="73">
+      <c r="I44" s="72">
         <f>SUM(I39:I43)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="72">
+      <c r="J44" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K44" s="56">
+      <c r="K44" s="55">
         <f>B34*K37/100</f>
         <v>0</v>
       </c>
-      <c r="L44" s="57">
+      <c r="L44" s="56">
         <f>B34*L37/100</f>
         <v>0</v>
       </c>
-      <c r="M44" s="58">
+      <c r="M44" s="57">
         <f>B34*M37/100</f>
         <v>0</v>
       </c>
-      <c r="N44" s="59" t="e">
+      <c r="N44" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O44" s="60" t="e">
+      <c r="O44" s="59" t="e">
         <f>SUM(O39:O43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P44" s="61" t="e">
+      <c r="P44" s="60" t="e">
         <f>ABS($M$44)-ABS($O$44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q44" s="62" t="e">
+      <c r="Q44" s="61" t="e">
         <f>IF(AND(O44&lt;0,P44&lt;0),"ТРЕБУЕТСЯ АКТ НЕДОСТАЧИ","")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="B45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
-      <c r="M45" s="65"/>
-      <c r="O45" s="66"/>
+      <c r="B45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="O45" s="65"/>
     </row>
     <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
@@ -2401,8 +2398,8 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
     </row>
     <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
@@ -2412,7 +2409,7 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="67" t="e">
+      <c r="G47" s="66" t="e">
         <f>H44</f>
         <v>#DIV/0!</v>
       </c>
@@ -2426,7 +2423,7 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="67">
+      <c r="G48" s="66">
         <f>I44</f>
         <v>0</v>
       </c>
@@ -2440,7 +2437,7 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="67" t="e">
+      <c r="G49" s="66" t="e">
         <f>O44</f>
         <v>#DIV/0!</v>
       </c>
@@ -2453,7 +2450,7 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="67">
+      <c r="G50" s="66">
         <f>J44</f>
         <v>0</v>
       </c>
@@ -2465,24 +2462,24 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="67" t="e">
+      <c r="G51" s="66" t="e">
         <f>IF($B$34+$O$44&gt;B34,B34,$B$34+$O$44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="68"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="66"/>
     </row>
     <row r="52" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="67"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="67"/>
+      <c r="G52" s="66"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66"/>
     </row>
     <row r="53" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
@@ -2490,18 +2487,18 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="67"/>
+      <c r="G53" s="66"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="69" t="s">
+      <c r="A54" s="68" t="s">
         <v>58</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="67"/>
+      <c r="G54" s="66"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -2554,11 +2551,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="E26:F26"/>
@@ -2568,11 +2565,11 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <conditionalFormatting sqref="P44">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">

--- a/src/assets/drawback-template.xlsx
+++ b/src/assets/drawback-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artursirbiladze/PhpstormProjects/rosnova-warehouse/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105E3D8C-9D1E-054D-A15A-E4806EE8A30C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60BCF91-5E4C-2D4B-BBCA-632F8FA1453B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -72,12 +68,6 @@
     <t>Плотномер портотивный</t>
   </si>
   <si>
-    <t>Свидетельство о поверке № 13/7620</t>
-  </si>
-  <si>
-    <t>Действительно до 15 сентября 2020г.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ареометр АНТ-2 </t>
   </si>
   <si>
@@ -223,6 +213,12 @@
   </si>
   <si>
     <t>Водитель</t>
+  </si>
+  <si>
+    <t>Свидетельство о поверке № С-БН/28-09-2022/189330183</t>
+  </si>
+  <si>
+    <t>Действительно до 07.08.2024г.</t>
   </si>
 </sst>
 </file>
@@ -1050,40 +1046,40 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1496,14 +1492,14 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
@@ -1533,25 +1529,25 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -1573,13 +1569,13 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1587,14 +1583,14 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
@@ -1649,15 +1645,15 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1669,16 +1665,16 @@
       <c r="B12" s="5"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
       <c r="H12" s="7"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1689,8 +1685,8 @@
     </row>
     <row r="14" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="7"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1716,10 +1712,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1768,12 +1764,12 @@
     </row>
     <row r="20" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1784,43 +1780,43 @@
     </row>
     <row r="21" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
       <c r="D21" s="5"/>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="87"/>
+      <c r="G21" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="86"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="87"/>
+      <c r="G22" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="86"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1835,31 +1831,31 @@
     </row>
     <row r="24" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="14"/>
@@ -1887,16 +1883,16 @@
     </row>
     <row r="26" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
+        <v>20</v>
+      </c>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
       <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="13"/>
@@ -1916,28 +1912,28 @@
     </row>
     <row r="28" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -1948,10 +1944,10 @@
     </row>
     <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1962,7 +1958,7 @@
     </row>
     <row r="32" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B32" s="6"/>
       <c r="D32" s="5"/>
@@ -1973,10 +1969,10 @@
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="85"/>
+      <c r="A33" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="92"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -1990,7 +1986,7 @@
     </row>
     <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="22"/>
@@ -2007,7 +2003,7 @@
     </row>
     <row r="35" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="22"/>
@@ -2024,7 +2020,7 @@
     </row>
     <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" s="94"/>
       <c r="C36" s="22"/>
@@ -2067,51 +2063,51 @@
       <c r="A38" s="73"/>
       <c r="B38" s="73"/>
       <c r="C38" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="81" t="s">
+      <c r="F38" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="82" t="s">
+      <c r="G38" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="82" t="s">
+      <c r="H38" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="82" t="s">
+      <c r="I38" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="82" t="s">
+      <c r="J38" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="I38" s="81" t="s">
+      <c r="K38" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J38" s="69" t="s">
+      <c r="L38" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="37" t="s">
+      <c r="M38" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="L38" s="38" t="s">
+      <c r="N38" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="M38" s="39" t="s">
+      <c r="O38" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="N38" s="36" t="s">
+      <c r="P38" s="35" t="s">
         <v>44</v>
-      </c>
-      <c r="O38" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="P38" s="35" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" s="78"/>
       <c r="C39" s="76"/>
@@ -2151,7 +2147,7 @@
     </row>
     <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40" s="78"/>
       <c r="C40" s="76"/>
@@ -2191,7 +2187,7 @@
     </row>
     <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41" s="78"/>
       <c r="C41" s="76"/>
@@ -2231,7 +2227,7 @@
     </row>
     <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42" s="78"/>
       <c r="C42" s="76"/>
@@ -2271,7 +2267,7 @@
     </row>
     <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="80" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B43" s="78"/>
       <c r="C43" s="76"/>
@@ -2311,7 +2307,7 @@
     </row>
     <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="77" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B44" s="78">
         <f>SUM(B39:B43)</f>
@@ -2389,7 +2385,7 @@
     </row>
     <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2403,7 +2399,7 @@
     </row>
     <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2417,7 +2413,7 @@
     </row>
     <row r="48" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2431,7 +2427,7 @@
     </row>
     <row r="49" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2444,7 +2440,7 @@
     </row>
     <row r="50" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2457,7 +2453,7 @@
     </row>
     <row r="51" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -2492,7 +2488,7 @@
     </row>
     <row r="54" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="68" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2503,7 +2499,7 @@
     </row>
     <row r="55" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2515,7 +2511,7 @@
     </row>
     <row r="56" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2539,7 +2535,7 @@
     </row>
     <row r="58" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2551,11 +2547,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="E26:F26"/>
@@ -2565,11 +2561,11 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="P44">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">

--- a/src/assets/drawback-template.xlsx
+++ b/src/assets/drawback-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artursirbiladze/PhpstormProjects/rosnova-warehouse/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BB5719-EAFB-E74F-B13A-E01592502CBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD697C2A-4AFE-BF43-8713-D9379FB79BB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28940" windowHeight="17940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="page" sheetId="1" r:id="rId1"/>
@@ -833,36 +833,6 @@
   </cellStyleXfs>
   <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1077,6 +1047,36 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1487,7 +1487,7 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1511,1042 +1511,1042 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="14"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="B12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="D16" s="16" t="s">
+      <c r="B16" s="3"/>
+      <c r="D16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="16" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16">
         <v>20520986</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="16">
         <v>20520987</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="16">
         <v>20520988</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="16">
         <v>20520989</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="16" t="s">
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="31"/>
+      <c r="B28" s="5"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="31"/>
+      <c r="B29" s="5"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="D32" s="13"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+      <c r="B32" s="5"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
+      <c r="B33" s="87"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
     </row>
     <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
     </row>
     <row r="37" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="42">
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="32">
         <v>0.65</v>
       </c>
-      <c r="L37" s="43">
+      <c r="L37" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="M37" s="44">
+      <c r="M37" s="34">
         <f>K37+L37</f>
         <v>0.65039999999999998</v>
       </c>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
     </row>
     <row r="38" spans="1:17" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="47" t="s">
+      <c r="G38" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="47" t="s">
+      <c r="H38" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="I38" s="46" t="s">
+      <c r="I38" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="J38" s="48" t="s">
+      <c r="J38" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="49" t="s">
+      <c r="K38" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="L38" s="50" t="s">
+      <c r="L38" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="M38" s="51" t="s">
+      <c r="M38" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="N38" s="52" t="s">
+      <c r="N38" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="O38" s="53" t="s">
+      <c r="O38" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="P38" s="54" t="s">
+      <c r="P38" s="44" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="60">
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="50">
         <f>B39*B35</f>
         <v>0</v>
       </c>
-      <c r="G39" s="60" t="e">
+      <c r="G39" s="50" t="e">
         <f t="shared" ref="G39:G44" si="0">F39/C39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="60" t="e">
-        <f>IF(B39-G39&lt;0,0,B39-G39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="61">
+      <c r="H39" s="50" t="e">
+        <f>B39-G39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="51">
         <v>0</v>
       </c>
-      <c r="J39" s="62">
+      <c r="J39" s="52">
         <f t="shared" ref="J39:J44" si="1">B39-I39</f>
         <v>0</v>
       </c>
-      <c r="K39" s="63"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="66" t="e">
+      <c r="K39" s="53"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="56" t="e">
         <f t="shared" ref="N39:N44" si="2">H39-I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O39" s="67" t="e">
+      <c r="O39" s="57" t="e">
         <f>N39*C39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P39" s="68"/>
+      <c r="P39" s="58"/>
     </row>
     <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="60">
+      <c r="B40" s="46"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="50">
         <f>B40*B35</f>
         <v>0</v>
       </c>
-      <c r="G40" s="60" t="e">
+      <c r="G40" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="60" t="e">
-        <f>IF(B40-G40&lt;0,0,B40-G40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="61">
+      <c r="H40" s="50" t="e">
+        <f t="shared" ref="H40:H44" si="3">B40-G40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="51">
         <v>0</v>
       </c>
-      <c r="J40" s="62">
+      <c r="J40" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K40" s="69"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="72" t="e">
+      <c r="K40" s="59"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O40" s="67" t="e">
+      <c r="O40" s="57" t="e">
         <f>N40*C40</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P40" s="73"/>
+      <c r="P40" s="63"/>
     </row>
     <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="60">
+      <c r="B41" s="46"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="50">
         <f>B41*B35</f>
         <v>0</v>
       </c>
-      <c r="G41" s="60" t="e">
+      <c r="G41" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="60" t="e">
-        <f>IF(B41-G41&lt;0,0,B41-G41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="61">
+      <c r="H41" s="50" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="51">
         <v>0</v>
       </c>
-      <c r="J41" s="62">
+      <c r="J41" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K41" s="69"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="72" t="e">
+      <c r="K41" s="59"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O41" s="67" t="e">
+      <c r="O41" s="57" t="e">
         <f>N41*C41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P41" s="73"/>
+      <c r="P41" s="63"/>
     </row>
     <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="60">
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50">
         <f>B42*B35</f>
         <v>0</v>
       </c>
-      <c r="G42" s="60" t="e">
+      <c r="G42" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="60" t="e">
-        <f>IF(B42-G42&lt;0,0,B42-G42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="61">
+      <c r="H42" s="50" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="51">
         <v>0</v>
       </c>
-      <c r="J42" s="62">
+      <c r="J42" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K42" s="74"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="72" t="e">
+      <c r="K42" s="64"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O42" s="67" t="e">
+      <c r="O42" s="57" t="e">
         <f>N42*C42</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P42" s="77"/>
+      <c r="P42" s="67"/>
     </row>
     <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="60">
+      <c r="B43" s="46"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="50">
         <f>B43*B35</f>
         <v>0</v>
       </c>
-      <c r="G43" s="60" t="e">
+      <c r="G43" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="60" t="e">
-        <f>IF(B43-G43&lt;0,0,B43-G43)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="61">
+      <c r="H43" s="50" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" s="51">
         <v>0</v>
       </c>
-      <c r="J43" s="62">
+      <c r="J43" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K43" s="74"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="72" t="e">
+      <c r="K43" s="64"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O43" s="67" t="e">
+      <c r="O43" s="57" t="e">
         <f>N43*C43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P43" s="77"/>
+      <c r="P43" s="67"/>
     </row>
     <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="78" t="s">
+      <c r="A44" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="56">
+      <c r="B44" s="46">
         <f>SUM(B39:B43)</f>
         <v>0</v>
       </c>
-      <c r="C44" s="57" t="e">
+      <c r="C44" s="47" t="e">
         <f>AVERAGE(C$39:C$43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D44" s="58" t="e">
+      <c r="D44" s="48" t="e">
         <f>AVERAGE(D$39:D$43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="78"/>
-      <c r="F44" s="56">
+      <c r="E44" s="68"/>
+      <c r="F44" s="46">
         <f>SUM(F39:F43)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="79" t="e">
+      <c r="G44" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="56" t="e">
-        <f>SUM(H39:H43)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I44" s="61">
+      <c r="H44" s="50" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" s="51">
         <f>SUM(I39:I43)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="80">
+      <c r="J44" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K44" s="81">
+      <c r="K44" s="71">
         <f>B34*K37/100</f>
         <v>0</v>
       </c>
-      <c r="L44" s="82">
+      <c r="L44" s="72">
         <f>B34*L37/100</f>
         <v>0</v>
       </c>
-      <c r="M44" s="83">
+      <c r="M44" s="73">
         <f>B34*M37/100</f>
         <v>0</v>
       </c>
-      <c r="N44" s="84" t="e">
+      <c r="N44" s="74" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O44" s="85" t="e">
+      <c r="O44" s="75" t="e">
         <f>SUM(O39:O43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P44" s="86" t="e">
+      <c r="P44" s="76" t="e">
         <f>ABS($M$44)-ABS($O$44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q44" s="87" t="e">
+      <c r="Q44" s="77" t="e">
         <f>IF(AND(O44&lt;0,P44&lt;0),"ТРЕБУЕТСЯ АКТ НЕДОСТАЧИ","")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="B45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="90"/>
-      <c r="O45" s="91"/>
+      <c r="B45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="O45" s="81"/>
     </row>
     <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="79"/>
     </row>
     <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="92" t="e">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="82" t="e">
         <f>H44</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="15"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="92">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="82">
         <f>I44</f>
         <v>0</v>
       </c>
-      <c r="H48" s="15"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="92" t="e">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="82" t="e">
         <f>O44</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="92">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="82">
         <f>J44</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="92" t="e">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="82" t="e">
         <f>IF($B$34+$O$44&gt;B34,B34,$B$34+$O$44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="93"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="92"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
     </row>
     <row r="52" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="92"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
     </row>
     <row r="53" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="15"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="94" t="s">
+      <c r="A54" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="15"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="O56" s="15"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="O56" s="5"/>
     </row>
     <row r="57" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="E26:F26"/>
@@ -2556,11 +2556,11 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <conditionalFormatting sqref="P44">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">

--- a/src/assets/drawback-template.xlsx
+++ b/src/assets/drawback-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artursirbiladze/PhpstormProjects/rosnova-warehouse/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD697C2A-4AFE-BF43-8713-D9379FB79BB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBCEA32-E387-9246-94D4-10BAEBA6DA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28940" windowHeight="17940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="28940" windowHeight="17940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="page" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t xml:space="preserve">Акт № </t>
   </si>
@@ -66,12 +70,6 @@
   </si>
   <si>
     <t>Плотномер портотивный</t>
-  </si>
-  <si>
-    <t>Свидетельство о поверке № С-БН/28-09-2022/189330183</t>
-  </si>
-  <si>
-    <t>Действительно до 07.08.2024г.</t>
   </si>
   <si>
     <t xml:space="preserve">Ареометр АНТ-2 </t>
@@ -1047,35 +1045,35 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1486,8 +1484,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1524,25 +1522,25 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -1564,13 +1562,13 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1578,14 +1576,14 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
@@ -1640,15 +1638,15 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1660,16 +1658,16 @@
       <c r="B12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="7"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="7"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1680,8 +1678,8 @@
     </row>
     <row r="14" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="7"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1758,14 +1756,10 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A20" s="6"/>
       <c r="B20" s="3"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1775,43 +1769,43 @@
     </row>
     <row r="21" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="6"/>
       <c r="D21" s="3"/>
       <c r="E21" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="89"/>
+      <c r="G21" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="88"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="89"/>
+      <c r="G22" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="88"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1826,31 +1820,31 @@
     </row>
     <row r="24" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="14"/>
@@ -1878,16 +1872,16 @@
     </row>
     <row r="26" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
+        <v>20</v>
+      </c>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
       <c r="G26" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="13"/>
@@ -1907,28 +1901,28 @@
     </row>
     <row r="28" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1939,10 +1933,10 @@
     </row>
     <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1953,7 +1947,7 @@
     </row>
     <row r="32" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B32" s="5"/>
       <c r="D32" s="3"/>
@@ -1964,10 +1958,10 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="87"/>
+      <c r="A33" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="94"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -1981,7 +1975,7 @@
     </row>
     <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="22"/>
@@ -1998,7 +1992,7 @@
     </row>
     <row r="35" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="22"/>
@@ -2015,7 +2009,7 @@
     </row>
     <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="22"/>
@@ -2058,51 +2052,51 @@
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="F38" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="G38" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="H38" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="37" t="s">
+      <c r="I38" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="37" t="s">
+      <c r="J38" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="K38" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="J38" s="38" t="s">
+      <c r="L38" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="39" t="s">
+      <c r="M38" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="L38" s="40" t="s">
+      <c r="N38" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="M38" s="41" t="s">
+      <c r="O38" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N38" s="42" t="s">
+      <c r="P38" s="44" t="s">
         <v>44</v>
-      </c>
-      <c r="O38" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="P38" s="44" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" s="46"/>
       <c r="C39" s="47"/>
@@ -2142,7 +2136,7 @@
     </row>
     <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="47"/>
@@ -2182,7 +2176,7 @@
     </row>
     <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41" s="46"/>
       <c r="C41" s="47"/>
@@ -2222,7 +2216,7 @@
     </row>
     <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42" s="46"/>
       <c r="C42" s="47"/>
@@ -2262,7 +2256,7 @@
     </row>
     <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B43" s="46"/>
       <c r="C43" s="47"/>
@@ -2302,7 +2296,7 @@
     </row>
     <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B44" s="46">
         <f>SUM(B39:B43)</f>
@@ -2380,7 +2374,7 @@
     </row>
     <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2394,7 +2388,7 @@
     </row>
     <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2408,7 +2402,7 @@
     </row>
     <row r="48" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2422,7 +2416,7 @@
     </row>
     <row r="49" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2435,7 +2429,7 @@
     </row>
     <row r="50" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2448,7 +2442,7 @@
     </row>
     <row r="51" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -2483,7 +2477,7 @@
     </row>
     <row r="54" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="84" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2494,7 +2488,7 @@
     </row>
     <row r="55" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2506,7 +2500,7 @@
     </row>
     <row r="56" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2530,7 +2524,7 @@
     </row>
     <row r="58" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2542,11 +2536,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="E26:F26"/>
@@ -2556,11 +2550,11 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="P44">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
